--- a/src/InsiteCommerce.Web/ImportExport/SampleImports/SampleImport_Customers.xlsx
+++ b/src/InsiteCommerce.Web/ImportExport/SampleImports/SampleImport_Customers.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Trunk\InSiteCommerce.Web\ImportExport\SampleImports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\InsiteCommerce\trunk\InSiteCommerce.Web\ImportExport\SampleImports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>required</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>0=false, 1=true - this should be skipped or set to 1</t>
-  </si>
-  <si>
-    <t>0= false (default), 1=true - normally does not need to be set</t>
   </si>
   <si>
     <t>Normally set if the customer uses a currency different than the site default</t>
@@ -316,9 +313,6 @@
     <t>ERP ShipTo Number</t>
   </si>
   <si>
-    <t>Ignore Product Restrictions</t>
-  </si>
-  <si>
     <t>Tax Code</t>
   </si>
   <si>
@@ -346,7 +340,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -712,12 +706,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF6"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="T1" sqref="T1"/>
-      <selection pane="bottomLeft" activeCell="AF1" sqref="AF1"/>
+      <selection pane="bottomLeft" activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,59 +738,58 @@
     <col min="21" max="21" width="13.5703125" style="3" customWidth="1"/>
     <col min="22" max="22" width="15.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="3"/>
-    <col min="26" max="26" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="9.140625" style="3"/>
-    <col min="29" max="29" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" style="3" customWidth="1"/>
-    <col min="32" max="32" width="23.140625" style="3" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="3"/>
+    <col min="24" max="24" width="9.140625" style="3"/>
+    <col min="25" max="25" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.140625" style="3"/>
+    <col min="28" max="28" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.42578125" style="3" customWidth="1"/>
+    <col min="31" max="31" width="23.140625" style="3" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>7</v>
@@ -805,7 +798,7 @@
         <v>8</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>9</v>
@@ -817,43 +810,40 @@
         <v>3</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="X1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>81</v>
       </c>
       <c r="AC1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AD1" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="AE1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -947,11 +937,8 @@
       <c r="AE2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AF2" s="3" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="3" spans="1:32" ht="285" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="285" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -965,10 +952,10 @@
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>14</v>
@@ -995,7 +982,7 @@
         <v>21</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V3" s="3" t="s">
         <v>22</v>
@@ -1007,220 +994,217 @@
         <v>24</v>
       </c>
       <c r="Y3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="AA3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AB3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AD3" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="AE3" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE5" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="6" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="4" t="s">
+      <c r="I6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U5" s="3" t="s">
+      <c r="X6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="W5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y6" s="3" t="s">
+      <c r="AB6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD6" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="S4" r:id="rId1"/>
-    <hyperlink ref="AF5" r:id="rId2"/>
+    <hyperlink ref="AE5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/src/InsiteCommerce.Web/ImportExport/SampleImports/SampleImport_Customers.xlsx
+++ b/src/InsiteCommerce.Web/ImportExport/SampleImports/SampleImport_Customers.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\InsiteCommerce\trunk\InSiteCommerce.Web\ImportExport\SampleImports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\InsiteCommerce\trunk\ISC-6630\InSiteCommerce.Web\ImportExport\SampleImports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Rarely used - typically for punchout customers - lets a customer go to a separate landing page once they log in</t>
-  </si>
-  <si>
-    <t>0=false, 1=true - this should be skipped or set to 1</t>
   </si>
   <si>
     <t>Normally set if the customer uses a currency different than the site default</t>
@@ -335,6 +332,9 @@
   </si>
   <si>
     <t>Users</t>
+  </si>
+  <si>
+    <t>0=false, 1=true - this should be set to 1 for live customers</t>
   </si>
 </sst>
 </file>
@@ -708,10 +708,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="T1" sqref="T1"/>
-      <selection pane="bottomLeft" activeCell="X1" sqref="X1:X1048576"/>
+      <selection pane="bottomLeft" activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,46 +750,46 @@
   <sheetData>
     <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>7</v>
@@ -798,7 +798,7 @@
         <v>8</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>9</v>
@@ -810,37 +810,37 @@
         <v>3</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AC1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="AE1" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="30" x14ac:dyDescent="0.25">
@@ -911,7 +911,7 @@
         <v>2</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X2" s="3" t="s">
         <v>2</v>
@@ -952,10 +952,10 @@
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>14</v>
@@ -982,223 +982,223 @@
         <v>21</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="W3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Z3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AC3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="AE3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="U4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="X4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="Y4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD4" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="H5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="R5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W5" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="X5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="H6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="U6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="R6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U6" s="3" t="s">
+      <c r="Y6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="X6" s="3" t="s">
+      <c r="AB6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD6" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
